--- a/components/LynnBrittany_1601WK1_TimeEstimationAndManagement.xlsx
+++ b/components/LynnBrittany_1601WK1_TimeEstimationAndManagement.xlsx
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>PAP 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Lynn, Brittany</t>
   </si>
   <si>
-    <t>Time Estimate</t>
-  </si>
-  <si>
-    <t>Actual Time</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -93,13 +81,124 @@
   </si>
   <si>
     <t>The Burn Up List</t>
+  </si>
+  <si>
+    <t>Time Estimate (min)</t>
+  </si>
+  <si>
+    <t>Actual Time (min)</t>
+  </si>
+  <si>
+    <t>Difference (min)</t>
+  </si>
+  <si>
+    <t>Project &amp; Portfolio I</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>WK2: The Week Ahead</t>
+  </si>
+  <si>
+    <t>Welcome to Career Module 1: Personal Branding</t>
+  </si>
+  <si>
+    <t>Career Development Representative Introduction</t>
+  </si>
+  <si>
+    <t>Top 10 Personal Branding Tips</t>
+  </si>
+  <si>
+    <t>WK 2: GoToTraining (GTT)</t>
+  </si>
+  <si>
+    <t>What is a Portfolio?</t>
+  </si>
+  <si>
+    <t>How Do I Create an ePortfolio?</t>
+  </si>
+  <si>
+    <t>Self Evaluation: SWOT</t>
+  </si>
+  <si>
+    <t>WK 2: Anchor Points</t>
+  </si>
+  <si>
+    <t>WK 2: Call to Action - Failure to Success!</t>
+  </si>
+  <si>
+    <t>Mission Statement</t>
+  </si>
+  <si>
+    <t>WK 2: Research</t>
+  </si>
+  <si>
+    <t>WK 2: Development</t>
+  </si>
+  <si>
+    <t>WK 2: Project &amp; Portfolio</t>
+  </si>
+  <si>
+    <t>The Burn-Up List</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>The Week Ahead</t>
+  </si>
+  <si>
+    <t>Career Module:</t>
+  </si>
+  <si>
+    <t>GoToTraining (GTT)</t>
+  </si>
+  <si>
+    <t>Communicating with Clarity</t>
+  </si>
+  <si>
+    <t>Communicating with Visual Tools</t>
+  </si>
+  <si>
+    <t>Anchor Points</t>
+  </si>
+  <si>
+    <t>Call to Action - Encouragement!</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Project &amp; Portfolio</t>
+  </si>
+  <si>
+    <t>Anchor Points:</t>
+  </si>
+  <si>
+    <t>Call to Action - Growth!</t>
+  </si>
+  <si>
+    <t>SWOT Follow-up</t>
+  </si>
+  <si>
+    <t>Being Paid for Your Work</t>
+  </si>
+  <si>
+    <t>Month in Review</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +206,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -124,54 +245,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,27 +537,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,24 +568,24 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -513,40 +600,52 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E26" si="0">C8-D8</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -554,43 +653,59 @@
       <c r="D11">
         <v>10</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>15</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -598,29 +713,44 @@
       <c r="D15">
         <v>25</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>60</v>
       </c>
       <c r="D16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -628,33 +758,317 @@
       <c r="D18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>90</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>22</v>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/components/LynnBrittany_1601WK1_TimeEstimationAndManagement.xlsx
+++ b/components/LynnBrittany_1601WK1_TimeEstimationAndManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brit\Desktop\Full Sail\Project and Portfolio 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brit\Lynn_Brittany_Portfolio\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Lynn, Brittany</t>
   </si>
@@ -192,13 +192,19 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>=C23-D23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +224,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -257,6 +271,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +558,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,11 +831,14 @@
         <v>17</v>
       </c>
       <c r="C22">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,9 +848,11 @@
       <c r="C23">
         <v>90</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>90</v>
+      <c r="D23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">

--- a/components/LynnBrittany_1601WK1_TimeEstimationAndManagement.xlsx
+++ b/components/LynnBrittany_1601WK1_TimeEstimationAndManagement.xlsx
@@ -197,7 +197,7 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>=C23-D23</t>
+    <t>=C42-D42</t>
   </si>
 </sst>
 </file>
@@ -229,9 +229,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -271,10 +269,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection sqref="A1:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E26" si="0">C8-D8</f>
+        <f t="shared" ref="E8:E42" si="0">C8-D8</f>
         <v>1</v>
       </c>
     </row>
@@ -848,11 +850,12 @@
       <c r="C23">
         <v>90</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>57</v>
+      <c r="D23" s="5">
+        <v>75</v>
+      </c>
+      <c r="E23" s="6">
+        <f>C23-D23</f>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,83 +912,212 @@
       <c r="B30" t="s">
         <v>24</v>
       </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>4</v>
       </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>95</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>65</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>75</v>
+      </c>
+      <c r="D37">
+        <v>85</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>45</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>42</v>
       </c>
@@ -1092,6 +1224,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>